--- a/setup_calculations.xlsx
+++ b/setup_calculations.xlsx
@@ -1,26 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nagoba\MPR\MRP-NGB\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -30,14 +20,14 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A48" authorId="0" shapeId="0">
+    <comment ref="A48" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
             <scheme val="minor"/>
+            <charset val="0"/>
           </rPr>
           <t>RD0 is referred to as the power-up timer, in seconds.
 The purpose of this timer is to provide protection
@@ -58,14 +48,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="A50" authorId="0" shapeId="0">
+    <comment ref="A50" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
             <scheme val="minor"/>
+            <charset val="0"/>
           </rPr>
           <t>RD1 is referred to as the rapid-cycle timer, in seconds.
 The purpose of this timer is to provide protection
@@ -78,14 +68,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="A52" authorId="0" shapeId="0">
+    <comment ref="A52" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
             <scheme val="minor"/>
+            <charset val="0"/>
           </rPr>
           <t>RD3 is referred to as the underload restart timer, in
 seconds. RD3 is used to restart the motor after an
@@ -103,52 +93,136 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
   <si>
+    <t>Value in hex</t>
+  </si>
+  <si>
+    <t>Enable/Disable</t>
+  </si>
+  <si>
+    <t>Auto reset</t>
+  </si>
+  <si>
+    <t>Trip relay 1</t>
+  </si>
+  <si>
+    <t>Alarm relay 2</t>
+  </si>
+  <si>
+    <t>trip setting</t>
+  </si>
+  <si>
+    <t>Alarm delay</t>
+  </si>
+  <si>
+    <t>trip delay</t>
+  </si>
+  <si>
+    <t>start bit pos</t>
+  </si>
+  <si>
+    <t>No of bit</t>
+  </si>
+  <si>
+    <t>range value(in dec)</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>0-1023</t>
+  </si>
+  <si>
+    <t>0-127</t>
+  </si>
+  <si>
+    <t>0-255</t>
+  </si>
+  <si>
+    <t>default value(in dec)</t>
+  </si>
+  <si>
+    <t>equivalent value  as per shift position(in dec)</t>
+  </si>
+  <si>
+    <t>equivalent value  as per shift position(in hex)</t>
+  </si>
+  <si>
     <t>parameter</t>
   </si>
   <si>
-    <t>Enable/Disable</t>
-  </si>
-  <si>
-    <t>Auto reset</t>
-  </si>
-  <si>
-    <t>Trip relay 1</t>
-  </si>
-  <si>
-    <t>Alarm relay 2</t>
-  </si>
-  <si>
-    <t>trip setting</t>
-  </si>
-  <si>
-    <t>Alarm delay</t>
-  </si>
-  <si>
-    <t>trip delay</t>
-  </si>
-  <si>
-    <t>No of bit</t>
-  </si>
-  <si>
-    <t>start bit pos</t>
-  </si>
-  <si>
-    <t>0-1</t>
-  </si>
-  <si>
-    <t>range value(in dec)</t>
-  </si>
-  <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>0-1023</t>
-  </si>
-  <si>
-    <t>0-127</t>
-  </si>
-  <si>
-    <t>0-255</t>
+    <t>value in hex</t>
+  </si>
+  <si>
+    <t>Under Voltage</t>
+  </si>
+  <si>
+    <t>default val</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> value  as per shift position</t>
+  </si>
+  <si>
+    <t>Over Voltage</t>
+  </si>
+  <si>
+    <t>Phase failure</t>
+  </si>
+  <si>
+    <t>Unbalance</t>
+  </si>
+  <si>
+    <t>Phase Reversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under current </t>
+  </si>
+  <si>
+    <t>Over current</t>
+  </si>
+  <si>
+    <t>Inverse time Overload</t>
+  </si>
+  <si>
+    <t>Current Unbalance</t>
+  </si>
+  <si>
+    <t>Rotor Jam/ Stall</t>
+  </si>
+  <si>
+    <t>Prolonged start</t>
+  </si>
+  <si>
+    <t>Phase reversal</t>
+  </si>
+  <si>
+    <t>Under Power</t>
+  </si>
+  <si>
+    <t>Over power</t>
+  </si>
+  <si>
+    <t>Ground fault (ELR)</t>
+  </si>
+  <si>
+    <t>PTC Over temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth fault </t>
+  </si>
+  <si>
+    <t>Contactor Failure</t>
+  </si>
+  <si>
+    <t>Power-up timer</t>
+  </si>
+  <si>
+    <t>Rapid-cycle timer</t>
+  </si>
+  <si>
+    <t>Underload restart timer</t>
   </si>
   <si>
     <t>default value</t>
@@ -158,102 +232,32 @@
   </si>
   <si>
     <t>value euivalent to shift position</t>
-  </si>
-  <si>
-    <t>Value in hex</t>
-  </si>
-  <si>
-    <t>default value(in dec)</t>
-  </si>
-  <si>
-    <t>equivalent value  as per shift position(in hex)</t>
-  </si>
-  <si>
-    <t>equivalent value  as per shift position(in dec)</t>
-  </si>
-  <si>
-    <t>Under Voltage</t>
-  </si>
-  <si>
-    <t>Over Voltage</t>
-  </si>
-  <si>
-    <t>Phase failure</t>
-  </si>
-  <si>
-    <t>Unbalance</t>
-  </si>
-  <si>
-    <t>Phase Reversal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under current </t>
-  </si>
-  <si>
-    <t>Over current</t>
-  </si>
-  <si>
-    <t>Inverse time Overload</t>
-  </si>
-  <si>
-    <t>Current Unbalance</t>
-  </si>
-  <si>
-    <t>Rotor Jam/ Stall</t>
-  </si>
-  <si>
-    <t>Prolonged start</t>
-  </si>
-  <si>
-    <t>Phase reversal</t>
-  </si>
-  <si>
-    <t>Under Power</t>
-  </si>
-  <si>
-    <t>Over power</t>
-  </si>
-  <si>
-    <t>Ground fault (ELR)</t>
-  </si>
-  <si>
-    <t>PTC Over temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earth fault </t>
-  </si>
-  <si>
-    <t>Contactor Failure</t>
-  </si>
-  <si>
-    <t>Power-up timer</t>
-  </si>
-  <si>
-    <t>Rapid-cycle timer</t>
-  </si>
-  <si>
-    <t>Underload restart timer</t>
-  </si>
-  <si>
-    <t>default val</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> value  as per shift position</t>
-  </si>
-  <si>
-    <t>value in hex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,7 +265,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -271,21 +275,164 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,12 +441,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -309,49 +642,335 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -400,7 +1019,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -435,7 +1054,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -609,296 +1228,292 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="6" topLeftCell="I27" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <pane xSplit="8" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="29.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="46.1428571428571" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.71428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1428571428571" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85714285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28571428571429" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.71428571428571" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7142857142857" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="37.5">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1" ht="37.5" spans="1:10">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="2" ht="18.75" spans="1:10">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>17</v>
+      </c>
+      <c r="J2" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" spans="1:10">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="B3" s="2"/>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="18.75" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="18.75" spans="1:10">
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>20</v>
+      </c>
+      <c r="I5" s="2">
         <v>5</v>
       </c>
-      <c r="H2" s="1">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" ht="37.5" spans="1:10">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1">
-        <v>7</v>
-      </c>
-      <c r="J3" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1">
-        <v>5</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="37.5">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="D6" s="1">
+      <c r="B6" s="2"/>
+      <c r="D6" s="2">
         <f>+_xlfn.BITLSHIFT(D5,D2)</f>
         <v>1</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <f t="shared" ref="E6:J6" si="0">+_xlfn.BITLSHIFT(E5,E2)</f>
         <v>2</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <f t="shared" si="0"/>
         <v>2560</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <f t="shared" si="0"/>
         <v>655360</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <f t="shared" si="0"/>
         <v>83886080</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="37.5">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="1" t="str">
+    <row r="7" ht="37.5" spans="1:10">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="str">
         <f>+DEC2HEX(SUM(D6:J6))</f>
         <v>50A0A2B</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="30">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="9" ht="30" spans="1:3">
       <c r="A9" s="3" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>10</v>
+      </c>
+      <c r="I10" s="1">
+        <v>50</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3</v>
-      </c>
-      <c r="H10" s="2">
-        <v>50</v>
-      </c>
-      <c r="I10" s="2">
-        <v>50</v>
-      </c>
-      <c r="J10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" s="1" t="str">
         <f>+DEC2HEX(SUM(D11:J11))</f>
-        <v>564197F</v>
-      </c>
-      <c r="D11" s="2">
+        <v>5640579</v>
+      </c>
+      <c r="D11" s="1">
         <f t="shared" ref="D11:J11" si="1">+_xlfn.BITLSHIFT(D10,D$2)</f>
         <v>1</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <f t="shared" si="1"/>
-        <v>6400</v>
-      </c>
-      <c r="I11" s="2">
+        <v>1280</v>
+      </c>
+      <c r="I11" s="1">
         <f t="shared" si="1"/>
         <v>6553600</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <f t="shared" si="1"/>
         <v>83886080</v>
       </c>
@@ -907,65 +1522,65 @@
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>44</v>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3</v>
-      </c>
-      <c r="G12" s="2">
-        <v>3</v>
-      </c>
-      <c r="H12" s="2">
-        <v>50</v>
-      </c>
-      <c r="I12" s="2">
-        <v>50</v>
-      </c>
-      <c r="J12" s="2">
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>50</v>
+      </c>
+      <c r="I12" s="1">
+        <v>50</v>
+      </c>
+      <c r="J12" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="2" t="str">
+    <row r="13" spans="2:10">
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="str">
         <f>+DEC2HEX(SUM(D13:J13))</f>
         <v>564197F</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <f t="shared" ref="D13:J13" si="2">+_xlfn.BITLSHIFT(D12,D$2)</f>
         <v>1</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <f t="shared" si="2"/>
         <v>6400</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <f t="shared" si="2"/>
         <v>6553600</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <f t="shared" si="2"/>
         <v>83886080</v>
       </c>
@@ -974,65 +1589,65 @@
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>44</v>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="2" t="str">
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="str">
         <f>+DEC2HEX(SUM(D15:J15))</f>
         <v>6</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <f t="shared" ref="D15:J15" si="3">+_xlfn.BITLSHIFT(D14,D$2)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1041,65 +1656,65 @@
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>44</v>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="2">
-        <v>3</v>
-      </c>
-      <c r="F16" s="2">
-        <v>3</v>
-      </c>
-      <c r="G16" s="2">
-        <v>3</v>
-      </c>
-      <c r="H16" s="2">
-        <v>50</v>
-      </c>
-      <c r="I16" s="2">
-        <v>50</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>50</v>
+      </c>
+      <c r="I16" s="1">
+        <v>50</v>
+      </c>
+      <c r="J16" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="B17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="2" t="str">
+    <row r="17" spans="2:10">
+      <c r="B17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="str">
         <f>+DEC2HEX(SUM(D17:J17))</f>
         <v>564197F</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <f t="shared" ref="D17:J17" si="4">+_xlfn.BITLSHIFT(D16,D$2)</f>
         <v>1</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <f t="shared" si="4"/>
         <v>24</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <f t="shared" si="4"/>
         <v>96</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="1">
         <f t="shared" si="4"/>
         <v>6400</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <f t="shared" si="4"/>
         <v>6553600</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="1">
         <f t="shared" si="4"/>
         <v>83886080</v>
       </c>
@@ -1108,65 +1723,65 @@
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>44</v>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>3</v>
-      </c>
-      <c r="F18" s="2">
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="B19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="2" t="str">
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="1" t="str">
         <f>+DEC2HEX(SUM(D19:J19))</f>
         <v>6</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="1">
         <f t="shared" ref="D19:J19" si="5">+_xlfn.BITLSHIFT(D18,D$2)</f>
         <v>0</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -1175,65 +1790,65 @@
       <c r="A20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>44</v>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2">
-        <v>3</v>
-      </c>
-      <c r="F20" s="2">
-        <v>3</v>
-      </c>
-      <c r="G20" s="2">
-        <v>3</v>
-      </c>
-      <c r="H20" s="2">
-        <v>50</v>
-      </c>
-      <c r="I20" s="2">
-        <v>50</v>
-      </c>
-      <c r="J20" s="2">
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>50</v>
+      </c>
+      <c r="I20" s="1">
+        <v>50</v>
+      </c>
+      <c r="J20" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="B21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="2" t="str">
+    <row r="21" spans="2:10">
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="str">
         <f>+DEC2HEX(SUM(D21:J21))</f>
         <v>564197F</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <f t="shared" ref="D21:J21" si="6">+_xlfn.BITLSHIFT(D20,D$2)</f>
         <v>1</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <f t="shared" si="6"/>
         <v>96</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="1">
         <f t="shared" si="6"/>
         <v>6400</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="1">
         <f t="shared" si="6"/>
         <v>6553600</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="1">
         <f t="shared" si="6"/>
         <v>83886080</v>
       </c>
@@ -1242,65 +1857,65 @@
       <c r="A22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>44</v>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2">
-        <v>3</v>
-      </c>
-      <c r="G22" s="2">
-        <v>3</v>
-      </c>
-      <c r="H22" s="2">
-        <v>50</v>
-      </c>
-      <c r="I22" s="2">
-        <v>50</v>
-      </c>
-      <c r="J22" s="2">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3</v>
+      </c>
+      <c r="H22" s="1">
+        <v>50</v>
+      </c>
+      <c r="I22" s="1">
+        <v>50</v>
+      </c>
+      <c r="J22" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="B23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="2" t="str">
+    <row r="23" spans="2:10">
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="str">
         <f>+DEC2HEX(SUM(D23:J23))</f>
         <v>564197F</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <f t="shared" ref="D23:J23" si="7">+_xlfn.BITLSHIFT(D22,D$2)</f>
         <v>1</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <f t="shared" si="7"/>
         <v>24</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <f t="shared" si="7"/>
         <v>96</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="1">
         <f t="shared" si="7"/>
         <v>6400</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <f t="shared" si="7"/>
         <v>6553600</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="1">
         <f t="shared" si="7"/>
         <v>83886080</v>
       </c>
@@ -1309,65 +1924,65 @@
       <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>44</v>
+      <c r="B24" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2">
-        <v>3</v>
-      </c>
-      <c r="G24" s="2">
-        <v>3</v>
-      </c>
-      <c r="H24" s="2">
-        <v>50</v>
-      </c>
-      <c r="I24" s="2">
-        <v>50</v>
-      </c>
-      <c r="J24" s="2">
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>3</v>
+      </c>
+      <c r="H24" s="1">
+        <v>50</v>
+      </c>
+      <c r="I24" s="1">
+        <v>50</v>
+      </c>
+      <c r="J24" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="B25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="2" t="str">
+    <row r="25" spans="2:10">
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="str">
         <f>+DEC2HEX(SUM(D25:J25))</f>
         <v>564197F</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <f t="shared" ref="D25:J25" si="8">+_xlfn.BITLSHIFT(D24,D$2)</f>
         <v>1</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="1">
         <f t="shared" si="8"/>
         <v>6400</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="1">
         <f t="shared" si="8"/>
         <v>6553600</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="1">
         <f t="shared" si="8"/>
         <v>83886080</v>
       </c>
@@ -1376,65 +1991,65 @@
       <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>44</v>
+      <c r="B26" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-      <c r="E26" s="2">
-        <v>3</v>
-      </c>
-      <c r="F26" s="2">
-        <v>3</v>
-      </c>
-      <c r="G26" s="2">
-        <v>3</v>
-      </c>
-      <c r="H26" s="2">
-        <v>50</v>
-      </c>
-      <c r="I26" s="2">
-        <v>50</v>
-      </c>
-      <c r="J26" s="2">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>3</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>50</v>
+      </c>
+      <c r="I26" s="1">
+        <v>50</v>
+      </c>
+      <c r="J26" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="B27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="2" t="str">
+    <row r="27" spans="2:10">
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1" t="str">
         <f>+DEC2HEX(SUM(D27:J27))</f>
         <v>564197F</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27" s="1">
         <f t="shared" ref="D27:J27" si="9">+_xlfn.BITLSHIFT(D26,D$2)</f>
         <v>1</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <f t="shared" si="9"/>
         <v>6</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <f t="shared" si="9"/>
         <v>96</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="1">
         <f t="shared" si="9"/>
         <v>6400</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="1">
         <f t="shared" si="9"/>
         <v>6553600</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="1">
         <f t="shared" si="9"/>
         <v>83886080</v>
       </c>
@@ -1443,65 +2058,65 @@
       <c r="A28" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>44</v>
+      <c r="B28" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="2">
-        <v>3</v>
-      </c>
-      <c r="F28" s="2">
-        <v>3</v>
-      </c>
-      <c r="G28" s="2">
-        <v>3</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+      <c r="H28" s="1">
         <v>800</v>
       </c>
-      <c r="I28" s="2">
-        <v>50</v>
-      </c>
-      <c r="J28" s="2">
+      <c r="I28" s="1">
+        <v>50</v>
+      </c>
+      <c r="J28" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="B29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="2" t="str">
+    <row r="29" spans="2:10">
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1" t="str">
         <f>+DEC2HEX(SUM(D29:J29))</f>
         <v>565907F</v>
       </c>
-      <c r="D29" s="2">
+      <c r="D29" s="1">
         <f t="shared" ref="D29:J29" si="10">+_xlfn.BITLSHIFT(D28,D$2)</f>
         <v>1</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="1">
         <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="1">
         <f t="shared" si="10"/>
         <v>24</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="1">
         <f t="shared" si="10"/>
         <v>102400</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="1">
         <f t="shared" si="10"/>
         <v>6553600</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="1">
         <f t="shared" si="10"/>
         <v>83886080</v>
       </c>
@@ -1510,65 +2125,65 @@
       <c r="A30" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>44</v>
+      <c r="B30" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-      <c r="E30" s="2">
-        <v>3</v>
-      </c>
-      <c r="F30" s="2">
-        <v>3</v>
-      </c>
-      <c r="G30" s="2">
-        <v>3</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1">
         <v>400</v>
       </c>
-      <c r="I30" s="2">
-        <v>50</v>
-      </c>
-      <c r="J30" s="2">
+      <c r="I30" s="1">
+        <v>50</v>
+      </c>
+      <c r="J30" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="B31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="2" t="str">
+    <row r="31" spans="2:10">
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="1" t="str">
         <f>+DEC2HEX(SUM(D31:J31))</f>
         <v>564C87F</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D31" s="1">
         <f t="shared" ref="D31:J31" si="11">+_xlfn.BITLSHIFT(D30,D$2)</f>
         <v>1</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <f t="shared" si="11"/>
         <v>24</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <f t="shared" si="11"/>
         <v>96</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="1">
         <f t="shared" si="11"/>
         <v>51200</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="1">
         <f t="shared" si="11"/>
         <v>6553600</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="1">
         <f t="shared" si="11"/>
         <v>83886080</v>
       </c>
@@ -1577,65 +2192,65 @@
       <c r="A32" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>44</v>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2">
-        <v>3</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="B33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="2" t="str">
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="1" t="str">
         <f>+DEC2HEX(SUM(D33:J33))</f>
         <v>6</v>
       </c>
-      <c r="D33" s="2">
+      <c r="D33" s="1">
         <f t="shared" ref="D33:J33" si="12">+_xlfn.BITLSHIFT(D32,D$2)</f>
         <v>0</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="1">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -1644,64 +2259,64 @@
       <c r="A34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="2">
-        <v>3</v>
-      </c>
-      <c r="F34" s="2">
-        <v>0</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
-        <v>0</v>
-      </c>
-      <c r="I34" s="2">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="B35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="2" t="str">
+      <c r="B34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1" t="str">
         <f>+DEC2HEX(SUM(D35:J35))</f>
         <v>6</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="1">
         <f t="shared" ref="D35:J35" si="13">+_xlfn.BITLSHIFT(D34,D$2)</f>
         <v>0</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="1">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -1710,64 +2325,64 @@
       <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2">
-        <v>3</v>
-      </c>
-      <c r="F36" s="2">
-        <v>3</v>
-      </c>
-      <c r="G36" s="2">
-        <v>3</v>
-      </c>
-      <c r="H36" s="2">
-        <v>50</v>
-      </c>
-      <c r="I36" s="2">
-        <v>50</v>
-      </c>
-      <c r="J36" s="2">
+      <c r="B36" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>3</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3</v>
+      </c>
+      <c r="H36" s="1">
+        <v>50</v>
+      </c>
+      <c r="I36" s="1">
+        <v>50</v>
+      </c>
+      <c r="J36" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="B37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="2" t="str">
+    <row r="37" spans="2:10">
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1" t="str">
         <f>+DEC2HEX(SUM(D37:J37))</f>
         <v>564197F</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="1">
         <f t="shared" ref="D37:J37" si="14">+_xlfn.BITLSHIFT(D36,D$2)</f>
         <v>1</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="1">
         <f t="shared" si="14"/>
         <v>6</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="1">
         <f t="shared" si="14"/>
         <v>24</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="1">
         <f t="shared" si="14"/>
         <v>96</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="1">
         <f t="shared" si="14"/>
         <v>6400</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="1">
         <f t="shared" si="14"/>
         <v>6553600</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="1">
         <f t="shared" si="14"/>
         <v>83886080</v>
       </c>
@@ -1776,64 +2391,64 @@
       <c r="A38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="2">
-        <v>3</v>
-      </c>
-      <c r="F38" s="2">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2">
-        <v>50</v>
-      </c>
-      <c r="I38" s="2">
-        <v>50</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="B38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>3</v>
+      </c>
+      <c r="F38" s="1">
+        <v>3</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>50</v>
+      </c>
+      <c r="I38" s="1">
+        <v>50</v>
+      </c>
+      <c r="J38" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="B39" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="2" t="str">
+    <row r="39" spans="2:10">
+      <c r="B39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="1" t="str">
         <f>+DEC2HEX(SUM(D39:J39))</f>
         <v>564197F</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="1">
         <f t="shared" ref="D39:J39" si="15">+_xlfn.BITLSHIFT(D38,D$2)</f>
         <v>1</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="1">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="1">
         <f t="shared" si="15"/>
         <v>24</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="1">
         <f t="shared" si="15"/>
         <v>96</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="1">
         <f t="shared" si="15"/>
         <v>6400</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="1">
         <f t="shared" si="15"/>
         <v>6553600</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="1">
         <f t="shared" si="15"/>
         <v>83886080</v>
       </c>
@@ -1842,64 +2457,64 @@
       <c r="A40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="2">
-        <v>3</v>
-      </c>
-      <c r="F40" s="2">
-        <v>3</v>
-      </c>
-      <c r="G40" s="2">
-        <v>3</v>
-      </c>
-      <c r="H40" s="2">
-        <v>50</v>
-      </c>
-      <c r="I40" s="2">
-        <v>50</v>
-      </c>
-      <c r="J40" s="2">
+      <c r="B40" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>3</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>50</v>
+      </c>
+      <c r="I40" s="1">
+        <v>50</v>
+      </c>
+      <c r="J40" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="B41" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="2" t="str">
+    <row r="41" spans="2:10">
+      <c r="B41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="1" t="str">
         <f>+DEC2HEX(SUM(D41:J41))</f>
         <v>564197F</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D41" s="1">
         <f t="shared" ref="D41:J41" si="16">+_xlfn.BITLSHIFT(D40,D$2)</f>
         <v>1</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="1">
         <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="1">
         <f t="shared" si="16"/>
         <v>24</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="1">
         <f t="shared" si="16"/>
         <v>96</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="1">
         <f t="shared" si="16"/>
         <v>6400</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="1">
         <f t="shared" si="16"/>
         <v>6553600</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="1">
         <f t="shared" si="16"/>
         <v>83886080</v>
       </c>
@@ -1908,64 +2523,64 @@
       <c r="A42" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2">
-        <v>3</v>
-      </c>
-      <c r="F42" s="2">
-        <v>3</v>
-      </c>
-      <c r="G42" s="2">
-        <v>3</v>
-      </c>
-      <c r="H42" s="2">
-        <v>50</v>
-      </c>
-      <c r="I42" s="2">
-        <v>50</v>
-      </c>
-      <c r="J42" s="2">
+      <c r="B42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>3</v>
+      </c>
+      <c r="F42" s="1">
+        <v>3</v>
+      </c>
+      <c r="G42" s="1">
+        <v>3</v>
+      </c>
+      <c r="H42" s="1">
+        <v>50</v>
+      </c>
+      <c r="I42" s="1">
+        <v>50</v>
+      </c>
+      <c r="J42" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="B43" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" s="2" t="str">
+    <row r="43" spans="2:10">
+      <c r="B43" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="1" t="str">
         <f>+DEC2HEX(SUM(D43:J43))</f>
         <v>564197F</v>
       </c>
-      <c r="D43" s="2">
+      <c r="D43" s="1">
         <f t="shared" ref="D43:J43" si="17">+_xlfn.BITLSHIFT(D42,D$2)</f>
         <v>1</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="1">
         <f t="shared" si="17"/>
         <v>6</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <f t="shared" si="17"/>
         <v>24</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="1">
         <f t="shared" si="17"/>
         <v>96</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="1">
         <f t="shared" si="17"/>
         <v>6400</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="1">
         <f t="shared" si="17"/>
         <v>6553600</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="1">
         <f t="shared" si="17"/>
         <v>83886080</v>
       </c>
@@ -1974,64 +2589,64 @@
       <c r="A44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="2">
-        <v>1</v>
-      </c>
-      <c r="E44" s="2">
-        <v>3</v>
-      </c>
-      <c r="F44" s="2">
-        <v>3</v>
-      </c>
-      <c r="G44" s="2">
-        <v>3</v>
-      </c>
-      <c r="H44" s="2">
-        <v>50</v>
-      </c>
-      <c r="I44" s="2">
-        <v>50</v>
-      </c>
-      <c r="J44" s="2">
+      <c r="B44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1">
+        <v>3</v>
+      </c>
+      <c r="H44" s="1">
+        <v>50</v>
+      </c>
+      <c r="I44" s="1">
+        <v>50</v>
+      </c>
+      <c r="J44" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="B45" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="2" t="str">
+    <row r="45" spans="2:10">
+      <c r="B45" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="1" t="str">
         <f>+DEC2HEX(SUM(D45:J45))</f>
         <v>564197F</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D45" s="1">
         <f t="shared" ref="D45:J45" si="18">+_xlfn.BITLSHIFT(D44,D$2)</f>
         <v>1</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="1">
         <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="1">
         <f t="shared" si="18"/>
         <v>24</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="1">
         <f t="shared" si="18"/>
         <v>96</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="1">
         <f t="shared" si="18"/>
         <v>6400</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="1">
         <f t="shared" si="18"/>
         <v>6553600</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="1">
         <f t="shared" si="18"/>
         <v>83886080</v>
       </c>
@@ -2040,64 +2655,64 @@
       <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D46" s="2">
-        <v>1</v>
-      </c>
-      <c r="E46" s="2">
-        <v>3</v>
-      </c>
-      <c r="F46" s="2">
-        <v>3</v>
-      </c>
-      <c r="G46" s="2">
-        <v>3</v>
-      </c>
-      <c r="H46" s="2">
-        <v>50</v>
-      </c>
-      <c r="I46" s="2">
-        <v>50</v>
-      </c>
-      <c r="J46" s="2">
+      <c r="B46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3</v>
+      </c>
+      <c r="G46" s="1">
+        <v>3</v>
+      </c>
+      <c r="H46" s="1">
+        <v>50</v>
+      </c>
+      <c r="I46" s="1">
+        <v>50</v>
+      </c>
+      <c r="J46" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="B47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C47" s="2" t="str">
+    <row r="47" spans="2:10">
+      <c r="B47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="1" t="str">
         <f>+DEC2HEX(SUM(D47:J47))</f>
         <v>564197F</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="1">
         <f t="shared" ref="D47:J47" si="19">+_xlfn.BITLSHIFT(D46,D$2)</f>
         <v>1</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="1">
         <f t="shared" si="19"/>
         <v>6</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="1">
         <f t="shared" si="19"/>
         <v>24</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="1">
         <f t="shared" si="19"/>
         <v>96</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="1">
         <f t="shared" si="19"/>
         <v>6400</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="1">
         <f t="shared" si="19"/>
         <v>6553600</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="1">
         <f t="shared" si="19"/>
         <v>83886080</v>
       </c>
@@ -2106,64 +2721,64 @@
       <c r="A48" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="2">
-        <v>3</v>
-      </c>
-      <c r="F48" s="2">
-        <v>3</v>
-      </c>
-      <c r="G48" s="2">
-        <v>3</v>
-      </c>
-      <c r="H48" s="2">
-        <v>50</v>
-      </c>
-      <c r="I48" s="2">
-        <v>50</v>
-      </c>
-      <c r="J48" s="2">
+      <c r="B48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3</v>
+      </c>
+      <c r="G48" s="1">
+        <v>3</v>
+      </c>
+      <c r="H48" s="1">
+        <v>50</v>
+      </c>
+      <c r="I48" s="1">
+        <v>50</v>
+      </c>
+      <c r="J48" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="B49" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C49" s="2" t="str">
+    <row r="49" spans="2:10">
+      <c r="B49" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="1" t="str">
         <f>+DEC2HEX(SUM(D49:J49))</f>
         <v>564197F</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="1">
         <f t="shared" ref="D49:J49" si="20">+_xlfn.BITLSHIFT(D48,D$2)</f>
         <v>1</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="1">
         <f t="shared" si="20"/>
         <v>6</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <f t="shared" si="20"/>
         <v>24</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <f t="shared" si="20"/>
         <v>96</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="1">
         <f t="shared" si="20"/>
         <v>6400</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="1">
         <f t="shared" si="20"/>
         <v>6553600</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="1">
         <f t="shared" si="20"/>
         <v>83886080</v>
       </c>
@@ -2172,64 +2787,64 @@
       <c r="A50" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="2">
-        <v>3</v>
-      </c>
-      <c r="F50" s="2">
-        <v>3</v>
-      </c>
-      <c r="G50" s="2">
-        <v>3</v>
-      </c>
-      <c r="H50" s="2">
-        <v>50</v>
-      </c>
-      <c r="I50" s="2">
-        <v>50</v>
-      </c>
-      <c r="J50" s="2">
+      <c r="B50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>3</v>
+      </c>
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
+      <c r="G50" s="1">
+        <v>3</v>
+      </c>
+      <c r="H50" s="1">
+        <v>50</v>
+      </c>
+      <c r="I50" s="1">
+        <v>50</v>
+      </c>
+      <c r="J50" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="B51" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="2" t="str">
+    <row r="51" spans="2:10">
+      <c r="B51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="1" t="str">
         <f>+DEC2HEX(SUM(D51:J51))</f>
         <v>564197F</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="1">
         <f t="shared" ref="D51:J51" si="21">+_xlfn.BITLSHIFT(D50,D$2)</f>
         <v>1</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="1">
         <f t="shared" si="21"/>
         <v>6</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="1">
         <f t="shared" si="21"/>
         <v>24</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="1">
         <f t="shared" si="21"/>
         <v>96</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="1">
         <f t="shared" si="21"/>
         <v>6400</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="1">
         <f t="shared" si="21"/>
         <v>6553600</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="1">
         <f t="shared" si="21"/>
         <v>83886080</v>
       </c>
@@ -2238,115 +2853,117 @@
       <c r="A52" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="2">
-        <v>3</v>
-      </c>
-      <c r="F52" s="2">
-        <v>3</v>
-      </c>
-      <c r="G52" s="2">
-        <v>3</v>
-      </c>
-      <c r="H52" s="2">
-        <v>50</v>
-      </c>
-      <c r="I52" s="2">
-        <v>50</v>
-      </c>
-      <c r="J52" s="2">
+      <c r="B52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1">
+        <v>3</v>
+      </c>
+      <c r="G52" s="1">
+        <v>3</v>
+      </c>
+      <c r="H52" s="1">
+        <v>50</v>
+      </c>
+      <c r="I52" s="1">
+        <v>50</v>
+      </c>
+      <c r="J52" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="B53" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="2" t="str">
+    <row r="53" spans="2:10">
+      <c r="B53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="1" t="str">
         <f>+DEC2HEX(SUM(D53:J53))</f>
         <v>564197F</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="1">
         <f t="shared" ref="D53:J53" si="22">+_xlfn.BITLSHIFT(D52,D$2)</f>
         <v>1</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <f t="shared" si="22"/>
         <v>6</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <f t="shared" si="22"/>
         <v>24</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="1">
         <f t="shared" si="22"/>
         <v>96</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="1">
         <f t="shared" si="22"/>
         <v>6400</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="1">
         <f t="shared" si="22"/>
         <v>6553600</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="1">
         <f t="shared" si="22"/>
         <v>83886080</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="24.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.2857142857143" customWidth="1"/>
+    <col min="5" max="5" width="12.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="15.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="33.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2360,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2524,7 +3141,7 @@
         <v>1694498816</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="3:7">
       <c r="C9">
         <f>+SUM(C2:C8)</f>
         <v>32</v>
@@ -2536,5 +3153,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>